--- a/out_corona.xlsx
+++ b/out_corona.xlsx
@@ -66,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -374,57 +442,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Country, Other</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>New Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Total Deaths</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>New Deaths</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Total Recovered</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Active Cases</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Serious, Critical</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tot Cases/ 1M pop</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Deaths/ 1M pop</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Total Tests</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tests/ 1M pop</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -448,43 +516,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1740679</v>
+        <v>6015369</v>
       </c>
       <c r="D2" t="n">
-        <v>15404</v>
+        <v>15004</v>
       </c>
       <c r="E2" t="n">
-        <v>101756</v>
+        <v>183961</v>
       </c>
       <c r="F2" t="n">
-        <v>1184</v>
+        <v>308</v>
       </c>
       <c r="G2" t="n">
-        <v>483749</v>
+        <v>3316394</v>
       </c>
       <c r="H2" t="n">
-        <v>1155174</v>
+        <v>2515014</v>
       </c>
       <c r="I2" t="n">
-        <v>17146</v>
+        <v>16392</v>
       </c>
       <c r="J2" t="n">
-        <v>5262</v>
+        <v>18157</v>
       </c>
       <c r="K2" t="n">
-        <v>308</v>
+        <v>555</v>
       </c>
       <c r="L2" t="n">
-        <v>15777248</v>
+        <v>78846249</v>
       </c>
       <c r="M2" t="n">
-        <v>47692</v>
+        <v>237988</v>
       </c>
       <c r="N2" t="n">
-        <v>34.26631271955597</v>
+        <v>10.82321031826182</v>
       </c>
       <c r="O2" t="n">
-        <v>30.67989266439533</v>
+        <v>9.603991269098847</v>
       </c>
     </row>
     <row r="3">
@@ -497,43 +565,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>399632</v>
+        <v>3731022</v>
       </c>
       <c r="D3" t="n">
-        <v>7272</v>
+        <v>9018</v>
       </c>
       <c r="E3" t="n">
-        <v>25035</v>
+        <v>117996</v>
       </c>
       <c r="F3" t="n">
-        <v>486</v>
+        <v>240</v>
       </c>
       <c r="G3" t="n">
-        <v>158593</v>
+        <v>2908848</v>
       </c>
       <c r="H3" t="n">
-        <v>216004</v>
+        <v>704178</v>
       </c>
       <c r="I3" t="n">
         <v>8318</v>
       </c>
       <c r="J3" t="n">
-        <v>1881</v>
+        <v>17534</v>
       </c>
       <c r="K3" t="n">
-        <v>118</v>
+        <v>555</v>
       </c>
       <c r="L3" t="n">
-        <v>871839</v>
+        <v>14172764</v>
       </c>
       <c r="M3" t="n">
-        <v>4104</v>
+        <v>66603</v>
       </c>
       <c r="N3" t="n">
-        <v>7.866996203631797</v>
+        <v>6.505179328851314</v>
       </c>
       <c r="O3" t="n">
-        <v>7.548165345071908</v>
+        <v>7.483629560336763</v>
       </c>
     </row>
     <row r="4">
@@ -542,47 +610,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>370680</v>
+        <v>3382152</v>
       </c>
       <c r="D4" t="n">
-        <v>8338</v>
+        <v>74403</v>
       </c>
       <c r="E4" t="n">
-        <v>3968</v>
+        <v>61675</v>
       </c>
       <c r="F4" t="n">
-        <v>161</v>
+        <v>1046</v>
       </c>
       <c r="G4" t="n">
-        <v>142208</v>
+        <v>2582179</v>
       </c>
       <c r="H4" t="n">
-        <v>224504</v>
+        <v>738298</v>
       </c>
       <c r="I4" t="n">
-        <v>2300</v>
+        <v>8944</v>
       </c>
       <c r="J4" t="n">
-        <v>2540</v>
+        <v>2447</v>
       </c>
       <c r="K4" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L4" t="n">
-        <v>9415992</v>
+        <v>38576510</v>
       </c>
       <c r="M4" t="n">
-        <v>64525</v>
+        <v>27912</v>
       </c>
       <c r="N4" t="n">
-        <v>7.297058675887403</v>
+        <v>53.67097556049283</v>
       </c>
       <c r="O4" t="n">
-        <v>1.196369885729792</v>
+        <v>32.61615216713439</v>
       </c>
     </row>
     <row r="5">
@@ -591,47 +659,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>283849</v>
+        <v>975576</v>
       </c>
       <c r="D5" t="n">
-        <v>510</v>
+        <v>4711</v>
       </c>
       <c r="E5" t="n">
-        <v>27118</v>
+        <v>16804</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="G5" t="n">
-        <v>196958</v>
+        <v>792561</v>
       </c>
       <c r="H5" t="n">
-        <v>59773</v>
+        <v>166211</v>
       </c>
       <c r="I5" t="n">
-        <v>854</v>
+        <v>2300</v>
       </c>
       <c r="J5" t="n">
-        <v>6071</v>
+        <v>6685</v>
       </c>
       <c r="K5" t="n">
-        <v>580</v>
+        <v>115</v>
       </c>
       <c r="L5" t="n">
-        <v>3556567</v>
+        <v>35400000</v>
       </c>
       <c r="M5" t="n">
-        <v>76071</v>
+        <v>242558</v>
       </c>
       <c r="N5" t="n">
-        <v>5.587738232685775</v>
+        <v>3.398303373055948</v>
       </c>
       <c r="O5" t="n">
-        <v>8.176199234178551</v>
+        <v>3.772996570003118</v>
       </c>
     </row>
     <row r="6">
@@ -640,43 +708,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SouthAfrica</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>267240</v>
+        <v>615701</v>
       </c>
       <c r="D6" t="n">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>37460</v>
+        <v>13502</v>
       </c>
       <c r="F6" t="n">
-        <v>412</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>525242</v>
+      </c>
+      <c r="H6" t="n">
+        <v>76957</v>
+      </c>
       <c r="I6" t="n">
-        <v>1559</v>
+        <v>539</v>
       </c>
       <c r="J6" t="n">
-        <v>3939</v>
+        <v>10361</v>
       </c>
       <c r="K6" t="n">
-        <v>552</v>
+        <v>227</v>
       </c>
       <c r="L6" t="n">
-        <v>3798490</v>
+        <v>3598973</v>
       </c>
       <c r="M6" t="n">
-        <v>55982</v>
+        <v>60566</v>
       </c>
       <c r="N6" t="n">
-        <v>5.260780081321219</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.29435885066482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -685,47 +757,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>231139</v>
+        <v>613378</v>
       </c>
       <c r="D7" t="n">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33072</v>
+        <v>28124</v>
       </c>
       <c r="F7" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>147101</v>
+        <v>421877</v>
       </c>
       <c r="H7" t="n">
-        <v>50966</v>
+        <v>163377</v>
       </c>
       <c r="I7" t="n">
-        <v>505</v>
+        <v>1512</v>
       </c>
       <c r="J7" t="n">
-        <v>3822</v>
+        <v>18564</v>
       </c>
       <c r="K7" t="n">
-        <v>547</v>
+        <v>851</v>
       </c>
       <c r="L7" t="n">
-        <v>3607251</v>
+        <v>3055850</v>
       </c>
       <c r="M7" t="n">
-        <v>59654</v>
+        <v>92485</v>
       </c>
       <c r="N7" t="n">
-        <v>4.550110190153065</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>9.971357071788223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -734,47 +806,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>182913</v>
+        <v>573888</v>
       </c>
       <c r="D8" t="n">
-        <v>191</v>
+        <v>5267</v>
       </c>
       <c r="E8" t="n">
-        <v>28596</v>
+        <v>62076</v>
       </c>
       <c r="F8" t="n">
-        <v>66</v>
+        <v>626</v>
       </c>
       <c r="G8" t="n">
-        <v>66584</v>
+        <v>396758</v>
       </c>
       <c r="H8" t="n">
-        <v>87733</v>
+        <v>115054</v>
       </c>
       <c r="I8" t="n">
-        <v>1501</v>
+        <v>3305</v>
       </c>
       <c r="J8" t="n">
-        <v>2803</v>
+        <v>4444</v>
       </c>
       <c r="K8" t="n">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="L8" t="n">
-        <v>1384633</v>
+        <v>1291083</v>
       </c>
       <c r="M8" t="n">
-        <v>21217</v>
+        <v>9998</v>
       </c>
       <c r="N8" t="n">
-        <v>3.600752383680243</v>
+        <v>3.799376749285858</v>
       </c>
       <c r="O8" t="n">
-        <v>8.621822896252299</v>
+        <v>19.51980043654506</v>
       </c>
     </row>
     <row r="9">
@@ -783,47 +855,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>181892</v>
+        <v>572270</v>
       </c>
       <c r="D9" t="n">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>8533</v>
+        <v>18184</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>162800</v>
+        <v>407121</v>
       </c>
       <c r="H9" t="n">
-        <v>10559</v>
+        <v>146965</v>
       </c>
       <c r="I9" t="n">
-        <v>821</v>
+        <v>1493</v>
       </c>
       <c r="J9" t="n">
-        <v>2172</v>
+        <v>11228</v>
       </c>
       <c r="K9" t="n">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="L9" t="n">
-        <v>3952971</v>
+        <v>2582612</v>
       </c>
       <c r="M9" t="n">
-        <v>47195</v>
+        <v>50673</v>
       </c>
       <c r="N9" t="n">
-        <v>3.580653384791495</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.572737962432539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -832,47 +904,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>159797</v>
+        <v>430599</v>
       </c>
       <c r="D10" t="n">
-        <v>1035</v>
+        <v>3781</v>
       </c>
       <c r="E10" t="n">
-        <v>4431</v>
+        <v>28996</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
-      </c>
-      <c r="G10" t="n">
-        <v>122793</v>
-      </c>
-      <c r="H10" t="n">
-        <v>32573</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="J10" t="n">
-        <v>1897</v>
+        <v>9209</v>
       </c>
       <c r="K10" t="n">
-        <v>53</v>
+        <v>620</v>
       </c>
       <c r="L10" t="n">
-        <v>1894650</v>
+        <v>8517446</v>
       </c>
       <c r="M10" t="n">
-        <v>22488</v>
+        <v>182162</v>
       </c>
       <c r="N10" t="n">
-        <v>3.145700024902286</v>
+        <v>2.727443229362034</v>
       </c>
       <c r="O10" t="n">
-        <v>1.335966472698767</v>
+        <v>0.7795447458684128</v>
       </c>
     </row>
     <row r="11">
@@ -881,47 +949,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>158086</v>
+        <v>404102</v>
       </c>
       <c r="D11" t="n">
-        <v>7293</v>
+        <v>1737</v>
       </c>
       <c r="E11" t="n">
-        <v>4534</v>
+        <v>11072</v>
       </c>
       <c r="F11" t="n">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="G11" t="n">
-        <v>67749</v>
+        <v>377922</v>
       </c>
       <c r="H11" t="n">
-        <v>85803</v>
+        <v>15108</v>
       </c>
       <c r="I11" t="n">
-        <v>8944</v>
+        <v>1012</v>
       </c>
       <c r="J11" t="n">
-        <v>115</v>
+        <v>21111</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>578</v>
       </c>
       <c r="L11" t="n">
-        <v>3242160</v>
+        <v>2303242</v>
       </c>
       <c r="M11" t="n">
-        <v>2352</v>
+        <v>120327</v>
       </c>
       <c r="N11" t="n">
-        <v>3.112017961142592</v>
+        <v>1.25299362322186</v>
       </c>
       <c r="O11" t="n">
-        <v>1.367021436970483</v>
+        <v>2.556906766448394</v>
       </c>
     </row>
     <row r="12">
@@ -930,47 +998,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>141591</v>
+        <v>370188</v>
       </c>
       <c r="D12" t="n">
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>7564</v>
+        <v>7944</v>
       </c>
       <c r="F12" t="n">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="G12" t="n">
-        <v>111176</v>
+        <v>274458</v>
       </c>
       <c r="H12" t="n">
-        <v>22851</v>
+        <v>87786</v>
       </c>
       <c r="I12" t="n">
-        <v>2551</v>
+        <v>2022</v>
       </c>
       <c r="J12" t="n">
-        <v>1688</v>
+        <v>8179</v>
       </c>
       <c r="K12" t="n">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="L12" t="n">
-        <v>856546</v>
+        <v>1172811</v>
       </c>
       <c r="M12" t="n">
-        <v>10211</v>
+        <v>25913</v>
       </c>
       <c r="N12" t="n">
-        <v>2.78730396832193</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2.280580094672415</v>
+        <v>3.274087932647334</v>
       </c>
     </row>
     <row r="13">
@@ -979,47 +1047,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>129751</v>
+        <v>367796</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2190</v>
       </c>
       <c r="E13" t="n">
-        <v>3788</v>
+        <v>21137</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G13" t="n">
-        <v>52906</v>
+        <v>316638</v>
       </c>
       <c r="H13" t="n">
-        <v>73057</v>
+        <v>30021</v>
       </c>
       <c r="I13" t="n">
-        <v>923</v>
+        <v>3822</v>
       </c>
       <c r="J13" t="n">
-        <v>3941</v>
+        <v>4370</v>
       </c>
       <c r="K13" t="n">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="L13" t="n">
-        <v>875721</v>
+        <v>3138782</v>
       </c>
       <c r="M13" t="n">
-        <v>26597</v>
+        <v>37297</v>
       </c>
       <c r="N13" t="n">
-        <v>2.554226449377</v>
+        <v>1.579767435150186</v>
       </c>
       <c r="O13" t="n">
-        <v>1.142099074381162</v>
+        <v>3.648269410664172</v>
       </c>
     </row>
     <row r="14">
@@ -1028,47 +1096,43 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>87481</v>
+        <v>330368</v>
       </c>
       <c r="D14" t="n">
-        <v>834</v>
+        <v>1522</v>
       </c>
       <c r="E14" t="n">
-        <v>6760</v>
+        <v>41477</v>
       </c>
       <c r="F14" t="n">
-        <v>121</v>
-      </c>
-      <c r="G14" t="n">
-        <v>46072</v>
-      </c>
-      <c r="H14" t="n">
-        <v>34649</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>502</v>
+        <v>64</v>
       </c>
       <c r="J14" t="n">
-        <v>2320</v>
+        <v>4863</v>
       </c>
       <c r="K14" t="n">
-        <v>179</v>
+        <v>610</v>
       </c>
       <c r="L14" t="n">
-        <v>1528315</v>
+        <v>16273209</v>
       </c>
       <c r="M14" t="n">
-        <v>40528</v>
+        <v>239518</v>
       </c>
       <c r="N14" t="n">
-        <v>1.722116084022083</v>
+        <v>1.097902299679719</v>
       </c>
       <c r="O14" t="n">
-        <v>2.038170470648536</v>
+        <v>0.3741814780168382</v>
       </c>
     </row>
     <row r="15">
@@ -1077,47 +1141,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>SaudiArabia</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>82993</v>
+        <v>311855</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>1019</v>
       </c>
       <c r="E15" t="n">
-        <v>4634</v>
+        <v>3785</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>78280</v>
+        <v>286255</v>
       </c>
       <c r="H15" t="n">
-        <v>79</v>
+        <v>21815</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>1582</v>
       </c>
       <c r="J15" t="n">
-        <v>58</v>
+        <v>8937</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>4792192</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>137330</v>
       </c>
       <c r="N15" t="n">
-        <v>1.633767105557147</v>
+        <v>0.735060738090429</v>
       </c>
       <c r="O15" t="n">
-        <v>1.397171887719721</v>
+        <v>0.9354536950420954</v>
       </c>
     </row>
     <row r="16">
@@ -1126,47 +1190,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>82289</v>
+        <v>304583</v>
       </c>
       <c r="D16" t="n">
-        <v>4328</v>
+        <v>2436</v>
       </c>
       <c r="E16" t="n">
-        <v>841</v>
+        <v>4127</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>33540</v>
+        <v>193458</v>
       </c>
       <c r="H16" t="n">
-        <v>47908</v>
+        <v>106998</v>
       </c>
       <c r="I16" t="n">
-        <v>1251</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4308</v>
+        <v>1847</v>
       </c>
       <c r="K16" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="L16" t="n">
-        <v>514523</v>
+        <v>1500385</v>
       </c>
       <c r="M16" t="n">
-        <v>26938</v>
+        <v>9096</v>
       </c>
       <c r="N16" t="n">
-        <v>1.619908442268529</v>
+        <v>1.757220763482125</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2535652908010975</v>
+        <v>1.403180542563143</v>
       </c>
     </row>
     <row r="17">
@@ -1175,47 +1239,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SaudiArabia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>78541</v>
+        <v>294638</v>
       </c>
       <c r="D17" t="n">
-        <v>1815</v>
+        <v>445</v>
       </c>
       <c r="E17" t="n">
-        <v>425</v>
+        <v>6274</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>51022</v>
+        <v>279561</v>
       </c>
       <c r="H17" t="n">
-        <v>27094</v>
+        <v>8803</v>
       </c>
       <c r="I17" t="n">
-        <v>384</v>
+        <v>641</v>
       </c>
       <c r="J17" t="n">
-        <v>2260</v>
+        <v>1330</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L17" t="n">
-        <v>754268</v>
+        <v>2535778</v>
       </c>
       <c r="M17" t="n">
-        <v>21700</v>
+        <v>11447</v>
       </c>
       <c r="N17" t="n">
-        <v>1.546126808737651</v>
+        <v>0.3210029719825721</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1281394156842645</v>
+        <v>0.2182725288431556</v>
       </c>
     </row>
     <row r="18">
@@ -1224,47 +1288,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>74560</v>
+        <v>263998</v>
       </c>
       <c r="D18" t="n">
-        <v>3455</v>
+        <v>1491</v>
       </c>
       <c r="E18" t="n">
-        <v>8134</v>
+        <v>6209</v>
       </c>
       <c r="F18" t="n">
-        <v>501</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>52219</v>
+        <v>240792</v>
       </c>
       <c r="H18" t="n">
-        <v>14207</v>
+        <v>16997</v>
       </c>
       <c r="I18" t="n">
-        <v>378</v>
+        <v>862</v>
       </c>
       <c r="J18" t="n">
-        <v>579</v>
+        <v>3125</v>
       </c>
       <c r="K18" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L18" t="n">
-        <v>235129</v>
+        <v>6727860</v>
       </c>
       <c r="M18" t="n">
-        <v>1826</v>
+        <v>79640</v>
       </c>
       <c r="N18" t="n">
-        <v>1.46775843011267</v>
+        <v>1.075540294889921</v>
       </c>
       <c r="O18" t="n">
-        <v>2.452437663943076</v>
+        <v>0.8107265357031493</v>
       </c>
     </row>
     <row r="19">
@@ -1273,47 +1337,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>59151</v>
+        <v>263949</v>
       </c>
       <c r="D19" t="n">
-        <v>1446</v>
+        <v>1411</v>
       </c>
       <c r="E19" t="n">
-        <v>1225</v>
+        <v>35463</v>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>19142</v>
+        <v>206554</v>
       </c>
       <c r="H19" t="n">
-        <v>38784</v>
+        <v>21932</v>
       </c>
       <c r="I19" t="n">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="J19" t="n">
-        <v>268</v>
+        <v>4367</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>587</v>
       </c>
       <c r="L19" t="n">
-        <v>499399</v>
+        <v>8313445</v>
       </c>
       <c r="M19" t="n">
-        <v>2265</v>
+        <v>137531</v>
       </c>
       <c r="N19" t="n">
-        <v>1.164423000262803</v>
+        <v>1.01783189543238</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3693430216781741</v>
+        <v>0.1559089491736826</v>
       </c>
     </row>
     <row r="20">
@@ -1322,47 +1386,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>57592</v>
+        <v>253587</v>
       </c>
       <c r="D20" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9364</v>
+        <v>30544</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15465</v>
+        <v>85524</v>
       </c>
       <c r="H20" t="n">
-        <v>32763</v>
+        <v>137519</v>
       </c>
       <c r="I20" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="J20" t="n">
-        <v>4971</v>
+        <v>3884</v>
       </c>
       <c r="K20" t="n">
-        <v>808</v>
+        <v>468</v>
       </c>
       <c r="L20" t="n">
-        <v>804890</v>
+        <v>6000000</v>
       </c>
       <c r="M20" t="n">
-        <v>69478</v>
+        <v>91889</v>
       </c>
       <c r="N20" t="n">
-        <v>1.133733147894969</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.823288208158712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1371,47 +1435,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>48947</v>
+        <v>240030</v>
       </c>
       <c r="D21" t="n">
-        <v>1740</v>
+        <v>1030</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>9359</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>13283</v>
+        <v>214233</v>
       </c>
       <c r="H21" t="n">
-        <v>35634</v>
+        <v>16438</v>
       </c>
       <c r="I21" t="n">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="J21" t="n">
-        <v>17018</v>
+        <v>2863</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="L21" t="n">
-        <v>201180</v>
+        <v>11208091</v>
       </c>
       <c r="M21" t="n">
-        <v>69949</v>
+        <v>133707</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9635511249828982</v>
+        <v>0.742995643015841</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00904513522477161</v>
+        <v>0.2182725288431556</v>
       </c>
     </row>
     <row r="22">
@@ -1420,43 +1484,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>45768</v>
+        <v>219435</v>
       </c>
       <c r="D22" t="n">
-        <v>190</v>
+        <v>3651</v>
       </c>
       <c r="E22" t="n">
-        <v>5871</v>
+        <v>6740</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+        <v>72</v>
+      </c>
+      <c r="G22" t="n">
+        <v>161009</v>
+      </c>
+      <c r="H22" t="n">
+        <v>51686</v>
+      </c>
       <c r="I22" t="n">
-        <v>188</v>
+        <v>566</v>
       </c>
       <c r="J22" t="n">
-        <v>2672</v>
+        <v>5438</v>
       </c>
       <c r="K22" t="n">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="L22" t="n">
-        <v>335524</v>
+        <v>1524864</v>
       </c>
       <c r="M22" t="n">
-        <v>19585</v>
+        <v>37786</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9009705985702348</v>
+        <v>2.63366708024353</v>
       </c>
       <c r="O22" t="n">
-        <v>1.770132963487804</v>
+        <v>2.245088868101029</v>
       </c>
     </row>
     <row r="23">
@@ -1465,47 +1533,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>38956</v>
+        <v>205581</v>
       </c>
       <c r="D23" t="n">
-        <v>897</v>
+        <v>3249</v>
       </c>
       <c r="E23" t="n">
-        <v>214</v>
+        <v>3234</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="G23" t="n">
-        <v>15923</v>
+        <v>133990</v>
       </c>
       <c r="H23" t="n">
-        <v>22819</v>
+        <v>68357</v>
       </c>
       <c r="I23" t="n">
-        <v>92</v>
+        <v>841</v>
       </c>
       <c r="J23" t="n">
-        <v>4122</v>
+        <v>1872</v>
       </c>
       <c r="K23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L23" t="n">
-        <v>485534</v>
+        <v>2437423</v>
       </c>
       <c r="M23" t="n">
-        <v>51381</v>
+        <v>22198</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7668722827718508</v>
+        <v>2.343682372969385</v>
       </c>
       <c r="O23" t="n">
-        <v>0.06452196460337083</v>
+        <v>3.024633613969442</v>
       </c>
     </row>
     <row r="24">
@@ -1514,47 +1582,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>38292</v>
+        <v>162884</v>
       </c>
       <c r="D24" t="n">
-        <v>1541</v>
+        <v>2719</v>
       </c>
       <c r="E24" t="n">
-        <v>544</v>
+        <v>7064</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="G24" t="n">
-        <v>7925</v>
+        <v>118575</v>
       </c>
       <c r="H24" t="n">
-        <v>29823</v>
+        <v>37245</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>233</v>
+        <v>595</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="L24" t="n">
-        <v>266456</v>
+        <v>2136416</v>
       </c>
       <c r="M24" t="n">
-        <v>1620</v>
+        <v>7798</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7538010435337229</v>
+        <v>1.961364226563176</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1640184520758586</v>
+        <v>3.741814780168382</v>
       </c>
     </row>
     <row r="25">
@@ -1563,47 +1631,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38103</v>
+        <v>126646</v>
       </c>
       <c r="D25" t="n">
-        <v>748</v>
+        <v>229</v>
       </c>
       <c r="E25" t="n">
-        <v>3275</v>
+        <v>9098</v>
       </c>
       <c r="F25" t="n">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>18425</v>
+        <v>112619</v>
       </c>
       <c r="H25" t="n">
-        <v>16403</v>
+        <v>4929</v>
       </c>
       <c r="I25" t="n">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="J25" t="n">
-        <v>2163</v>
+        <v>3351</v>
       </c>
       <c r="K25" t="n">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="L25" t="n">
-        <v>109541</v>
+        <v>5246341</v>
       </c>
       <c r="M25" t="n">
-        <v>6218</v>
+        <v>138817</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7500804648951594</v>
+        <v>0.1651902934472112</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9874272620375675</v>
+        <v>0.1247271593389461</v>
       </c>
     </row>
     <row r="26">
@@ -1612,47 +1680,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35088</v>
+        <v>117988</v>
       </c>
       <c r="D26" t="n">
-        <v>648</v>
+        <v>246</v>
       </c>
       <c r="E26" t="n">
-        <v>4220</v>
+        <v>195</v>
       </c>
       <c r="F26" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>4971</v>
+        <v>114797</v>
       </c>
       <c r="H26" t="n">
-        <v>25897</v>
+        <v>2996</v>
       </c>
       <c r="I26" t="n">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="J26" t="n">
-        <v>3476</v>
+        <v>42021</v>
       </c>
       <c r="K26" t="n">
-        <v>418</v>
+        <v>69</v>
       </c>
       <c r="L26" t="n">
-        <v>238800</v>
+        <v>609258</v>
       </c>
       <c r="M26" t="n">
-        <v>23659</v>
+        <v>216987</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6907283770895035</v>
+        <v>0.1774533283319387</v>
       </c>
       <c r="O26" t="n">
-        <v>1.272349021617873</v>
+        <v>0.03118178983473651</v>
       </c>
     </row>
     <row r="27">
@@ -1661,47 +1729,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32876</v>
+        <v>112094</v>
       </c>
       <c r="D27" t="n">
-        <v>533</v>
+        <v>1095</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>4726</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G27" t="n">
-        <v>17276</v>
+        <v>50397</v>
       </c>
       <c r="H27" t="n">
-        <v>15577</v>
+        <v>56971</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J27" t="n">
-        <v>5624</v>
+        <v>9583</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>404</v>
       </c>
       <c r="L27" t="n">
-        <v>334691</v>
+        <v>239073</v>
       </c>
       <c r="M27" t="n">
-        <v>57252</v>
+        <v>20439</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6471838270974269</v>
+        <v>0.789883717575093</v>
       </c>
       <c r="O27" t="n">
-        <v>0.006934603672324902</v>
+        <v>1.933270969753664</v>
       </c>
     </row>
     <row r="28">
@@ -1710,47 +1778,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>31969</v>
+        <v>112059</v>
       </c>
       <c r="D28" t="n">
-        <v>883</v>
+        <v>1974</v>
       </c>
       <c r="E28" t="n">
-        <v>255</v>
+        <v>2403</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="G28" t="n">
-        <v>16371</v>
+        <v>54217</v>
       </c>
       <c r="H28" t="n">
-        <v>15343</v>
+        <v>55439</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="J28" t="n">
-        <v>3236</v>
+        <v>2565</v>
       </c>
       <c r="K28" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="L28" t="n">
-        <v>2072493</v>
+        <v>1452006</v>
       </c>
       <c r="M28" t="n">
-        <v>209797</v>
+        <v>33233</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6293289867525746</v>
+        <v>1.423954756614825</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0768836494105587</v>
+        <v>1.527907701902089</v>
       </c>
     </row>
   </sheetData>
